--- a/开发日志/源石智影iOS小组开发日志.xlsx
+++ b/开发日志/源石智影iOS小组开发日志.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Documents/智影工作文稿/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mac/Desktop/moviewisdomIOSTeam/开发日志/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -14,9 +14,6 @@
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="150000" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
@@ -27,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -90,13 +87,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Bug/不规范</t>
-    <rPh sb="4" eb="5">
-      <t>bu'gui'fan</t>
-    </rPh>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>功能实现</t>
     <rPh sb="0" eb="1">
       <t>gong'neng</t>
@@ -164,6 +154,20 @@
     <rPh sb="0" eb="1">
       <t>fu'ze'r</t>
     </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Bug/崩溃/不规范</t>
+    <rPh sb="4" eb="5">
+      <t>beng'kui</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>bu'gui'fan</t>
+    </rPh>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>✅</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -171,7 +175,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -230,13 +234,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -271,12 +268,6 @@
   </cellStyleXfs>
   <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -286,15 +277,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -309,17 +304,129 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <sheetNames>
-      <sheetName val="任务"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="椭圆 3"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6527800" y="1511300"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>965200</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>1168400</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>342900</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="椭圆 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6527800" y="1511300"/>
+          <a:ext cx="203200" cy="203200"/>
+        </a:xfrm>
+        <a:prstGeom prst="ellipse">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="tx1"/>
+        </a:solidFill>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:endParaRPr lang="zh-CN" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -573,7 +680,33 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:spDef>
+      <a:spPr/>
+      <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+      <a:lstStyle>
+        <a:defPPr algn="l">
+          <a:defRPr sz="1100"/>
+        </a:defPPr>
+      </a:lstStyle>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </a:style>
+    </a:spDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
@@ -588,170 +721,168 @@
   <dimension ref="A1:M16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="14.83203125" style="3" customWidth="1"/>
-    <col min="4" max="5" width="28.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="24.1640625" style="3" customWidth="1"/>
-    <col min="7" max="7" width="24.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="16.1640625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="27.1640625" style="3" customWidth="1"/>
-    <col min="10" max="10" width="10.83203125" style="3"/>
-    <col min="11" max="11" width="16.1640625" style="3" customWidth="1"/>
-    <col min="12" max="12" width="20" style="3" customWidth="1"/>
-    <col min="13" max="13" width="27.6640625" style="3" customWidth="1"/>
-    <col min="14" max="16384" width="10.83203125" style="3"/>
+    <col min="1" max="3" width="14.83203125" style="1" customWidth="1"/>
+    <col min="4" max="5" width="28.5" style="1" customWidth="1"/>
+    <col min="6" max="6" width="24.1640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="25.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="27.1640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="10.83203125" style="1"/>
+    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="12" max="12" width="20" style="1" customWidth="1"/>
+    <col min="13" max="13" width="27.6640625" style="1" customWidth="1"/>
+    <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="6"/>
+      <c r="H1" s="6"/>
+      <c r="I1" s="6"/>
+      <c r="J1" s="6"/>
+      <c r="K1" s="6"/>
+      <c r="L1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7"/>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
+      <c r="M2" s="7"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6"/>
-      <c r="D2" s="6"/>
-      <c r="E2" s="6"/>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="6"/>
-    </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="5"/>
-      <c r="B3" s="5" t="s">
+      <c r="C3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="E3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="5" t="s">
+      <c r="H3" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="M3" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="H3" s="5" t="s">
-        <v>4</v>
-      </c>
-      <c r="I3" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5" t="s">
+    </row>
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D4" s="4">
         <v>1</v>
       </c>
-      <c r="K3" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" s="5" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="7">
+      <c r="E4" s="8"/>
+      <c r="F4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M4" s="8"/>
+    </row>
+    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
-        <f>--([1]!Table1[[#This Row],[完成百分比]]&gt;=1)</f>
+      <c r="E5" s="8"/>
+    </row>
+    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D6" s="4">
         <v>1</v>
       </c>
-      <c r="M4" s="8">
-        <f>--([1]!Table1[[#This Row],[完成百分比]]&gt;=1)</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D5" s="7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D6" s="7">
-        <v>1</v>
-      </c>
     </row>
     <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D7" s="7">
+      <c r="D7" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D8" s="7">
+      <c r="D8" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D9" s="7">
+      <c r="D9" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D10" s="7">
+      <c r="D10" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="11" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D11" s="7">
+      <c r="D11" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="12" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D12" s="7">
+      <c r="D12" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D13" s="7">
+      <c r="D13" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D14" s="7">
+      <c r="D14" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="15" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D15" s="7">
+      <c r="D15" s="4">
         <v>0.5</v>
       </c>
     </row>
     <row r="16" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D16" s="7">
+      <c r="D16" s="4">
         <v>0.5</v>
       </c>
     </row>
@@ -796,6 +927,8 @@
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <drawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{78C0D931-6437-407d-A8EE-F0AAD7539E65}">
       <x14:conditionalFormattings>
@@ -833,44 +966,6 @@
           </x14:cfRule>
           <xm:sqref>D5:D16</xm:sqref>
         </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="2" id="{66EECB18-8B29-1445-89DF-6BEC0BEBA9D1}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>E4</xm:sqref>
-        </x14:conditionalFormatting>
-        <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-          <x14:cfRule type="iconSet" priority="1" id="{370C7917-0A07-0247-BF56-B6CDDF8E9093}">
-            <x14:iconSet showValue="0" custom="1">
-              <x14:cfvo type="percent">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>0</xm:f>
-              </x14:cfvo>
-              <x14:cfvo type="num">
-                <xm:f>1</xm:f>
-              </x14:cfvo>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="NoIcons" iconId="0"/>
-              <x14:cfIcon iconSet="4TrafficLights" iconId="0"/>
-            </x14:iconSet>
-          </x14:cfRule>
-          <xm:sqref>M4</xm:sqref>
-        </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
   </extLst>

--- a/开发日志/源石智影iOS小组开发日志.xlsx
+++ b/开发日志/源石智影iOS小组开发日志.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="880" yWindow="1060" windowWidth="34140" windowHeight="17020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="38400" windowHeight="19460" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>DATE</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -168,6 +168,136 @@
   </si>
   <si>
     <t>✅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>在项目开发期，请大家每天下班前填写今天实现的功能和完成度。每天17：00请大家抽出15分钟的时间，进行代码互查。将发现的Bug/崩溃/不规范等问题填写在代码检查栏中，然后提交。Bug的责任人应写出Bug的解决方案和日期</t>
+    <rPh sb="0" eb="1">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>xiang'mu'kai'fa'qi</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>qing'da'jia</t>
+    </rPh>
+    <rPh sb="10" eb="11">
+      <t>mei'tian</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>xia'ban'qian</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>tian'xie</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>jin'tian</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>shi'xian</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>de</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>gong'nneg</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>he</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>wan'cheng'du</t>
+    </rPh>
+    <rPh sb="29" eb="30">
+      <t>mei'tian</t>
+    </rPh>
+    <rPh sb="36" eb="37">
+      <t>qing'da'jia</t>
+    </rPh>
+    <rPh sb="39" eb="40">
+      <t>chou'chu</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>fen'z</t>
+    </rPh>
+    <rPh sb="45" eb="46">
+      <t>de</t>
+    </rPh>
+    <rPh sb="46" eb="47">
+      <t>shi'jian</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>jing'xing</t>
+    </rPh>
+    <rPh sb="51" eb="52">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="53" eb="54">
+      <t>hu'cha</t>
+    </rPh>
+    <rPh sb="56" eb="57">
+      <t>jiang</t>
+    </rPh>
+    <rPh sb="57" eb="58">
+      <t>fa'xian</t>
+    </rPh>
+    <rPh sb="59" eb="60">
+      <t>de</t>
+    </rPh>
+    <rPh sb="70" eb="71">
+      <t>deng'wen'ti</t>
+    </rPh>
+    <rPh sb="73" eb="74">
+      <t>tian'xie</t>
+    </rPh>
+    <rPh sb="75" eb="76">
+      <t>zai</t>
+    </rPh>
+    <rPh sb="76" eb="77">
+      <t>dai'ma</t>
+    </rPh>
+    <rPh sb="78" eb="79">
+      <t>jian'cha</t>
+    </rPh>
+    <rPh sb="80" eb="81">
+      <t>lan</t>
+    </rPh>
+    <rPh sb="81" eb="82">
+      <t>zhong</t>
+    </rPh>
+    <rPh sb="83" eb="84">
+      <t>ran'hou</t>
+    </rPh>
+    <rPh sb="85" eb="86">
+      <t>ti'jiao</t>
+    </rPh>
+    <rPh sb="91" eb="92">
+      <t>de</t>
+    </rPh>
+    <rPh sb="92" eb="93">
+      <t>ze'ren'ren</t>
+    </rPh>
+    <rPh sb="95" eb="96">
+      <t>ying</t>
+    </rPh>
+    <rPh sb="96" eb="97">
+      <t>xie'chu</t>
+    </rPh>
+    <rPh sb="101" eb="102">
+      <t>de</t>
+    </rPh>
+    <rPh sb="102" eb="103">
+      <t>jie'jue</t>
+    </rPh>
+    <rPh sb="104" eb="105">
+      <t>fang'an</t>
+    </rPh>
+    <rPh sb="106" eb="107">
+      <t>he</t>
+    </rPh>
+    <rPh sb="107" eb="108">
+      <t>ri'qi</t>
+    </rPh>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -175,7 +305,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -226,14 +356,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="18"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -280,16 +402,16 @@
     <xf numFmtId="9" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -310,13 +432,13 @@
     <xdr:from>
       <xdr:col>4</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -370,13 +492,13 @@
     <xdr:from>
       <xdr:col>12</xdr:col>
       <xdr:colOff>965200</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>139700</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>1168400</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>342900</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -718,10 +840,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="36" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -733,112 +855,125 @@
     <col min="8" max="8" width="16.1640625" style="1" customWidth="1"/>
     <col min="9" max="9" width="27.1640625" style="1" customWidth="1"/>
     <col min="10" max="10" width="10.83203125" style="1"/>
-    <col min="11" max="11" width="16.1640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="19.1640625" style="1" customWidth="1"/>
     <col min="12" max="12" width="20" style="1" customWidth="1"/>
     <col min="13" max="13" width="27.6640625" style="1" customWidth="1"/>
     <col min="14" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="5"/>
-      <c r="C1" s="5"/>
-      <c r="D1" s="5"/>
-      <c r="E1" s="5"/>
-      <c r="F1" s="5"/>
+      <c r="B1" s="6"/>
+      <c r="C1" s="6"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="6"/>
+      <c r="F1" s="6"/>
       <c r="G1" s="6"/>
       <c r="H1" s="6"/>
       <c r="I1" s="6"/>
       <c r="J1" s="6"/>
       <c r="K1" s="6"/>
       <c r="L1" s="6"/>
+      <c r="M1" s="6"/>
     </row>
     <row r="2" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8"/>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
+      <c r="M2" s="8"/>
+    </row>
+    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B3" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7"/>
-      <c r="L2" s="7"/>
-      <c r="M2" s="7"/>
-    </row>
-    <row r="3" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="B3" s="3" t="s">
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
+      <c r="M3" s="7"/>
+    </row>
+    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="3" t="s">
+      <c r="D4" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F4" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="G3" s="3" t="s">
+      <c r="G4" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H4" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I4" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="J3" s="3" t="s">
+      <c r="J4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="K3" s="3" t="s">
+      <c r="K4" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="3" t="s">
+      <c r="L4" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="3" t="s">
+      <c r="M4" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="4" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="D4" s="4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="8"/>
-      <c r="F4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="M4" s="8"/>
     </row>
     <row r="5" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D5" s="4">
         <v>1</v>
       </c>
-      <c r="E5" s="8"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="M5" s="5"/>
     </row>
     <row r="6" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D6" s="4">
         <v>1</v>
       </c>
+      <c r="E6" s="5"/>
     </row>
     <row r="7" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
       <c r="D7" s="4">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:13" ht="36" customHeight="1" x14ac:dyDescent="0.15">
@@ -886,14 +1021,20 @@
         <v>0.5</v>
       </c>
     </row>
+    <row r="17" spans="4:4" ht="36" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="D17" s="4">
+        <v>0.5</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="A1:L1"/>
-    <mergeCell ref="G2:M2"/>
-    <mergeCell ref="B2:F2"/>
+  <mergeCells count="4">
+    <mergeCell ref="G3:M3"/>
+    <mergeCell ref="B3:F3"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="A2:M2"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="D4">
+  <conditionalFormatting sqref="D5">
     <cfRule type="dataBar" priority="4">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -907,7 +1048,7 @@
       </extLst>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D5:D16">
+  <conditionalFormatting sqref="D6:D17">
     <cfRule type="dataBar" priority="3">
       <dataBar>
         <cfvo type="num" val="0"/>
@@ -922,7 +1063,7 @@
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="这不是列出的值。" error="请在列表中选择一个值。" sqref="D4:D16">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" errorTitle="这不是列出的值。" error="请在列表中选择一个值。" sqref="D5:D17">
       <formula1>"0%,25%,50%,75%,100%"</formula1>
     </dataValidation>
   </dataValidations>
@@ -947,7 +1088,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D4</xm:sqref>
+          <xm:sqref>D5</xm:sqref>
         </x14:conditionalFormatting>
         <x14:conditionalFormatting xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
           <x14:cfRule type="dataBar" id="{A2C2F198-060E-934A-B338-30F88AD62E9A}">
@@ -964,7 +1105,7 @@
               <x14:axisColor rgb="FF000000"/>
             </x14:dataBar>
           </x14:cfRule>
-          <xm:sqref>D5:D16</xm:sqref>
+          <xm:sqref>D6:D17</xm:sqref>
         </x14:conditionalFormatting>
       </x14:conditionalFormattings>
     </ext>
